--- a/chapter2/Chapter2-2b.xlsx
+++ b/chapter2/Chapter2-2b.xlsx
@@ -292,15 +292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -315,8 +315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="76200"/>
-          <a:ext cx="5219700" cy="1238250"/>
+          <a:off x="0" y="3067050"/>
+          <a:ext cx="7362825" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,129 +645,129 @@
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>91</v>
+      </c>
+      <c r="B2" s="6">
+        <v>998</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>87</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1256</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>86</v>
+      </c>
+      <c r="B4" s="6">
+        <v>791</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6">
+        <v>705</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>92.8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1089</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>95.2</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1135</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>93.3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1076</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>94.9</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>91</v>
-      </c>
-      <c r="B10" s="6">
-        <v>998</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>89.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>87</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1256</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A9" s="6">
+        <v>97.7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1198</v>
+      </c>
+      <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
-        <v>90.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>86</v>
-      </c>
-      <c r="B12" s="6">
-        <v>791</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
-        <v>81.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>88</v>
-      </c>
-      <c r="B13" s="6">
-        <v>705</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>92.8</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1089</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>90.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>95.2</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1135</v>
-      </c>
-      <c r="C15" s="6">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>93.3</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1076</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
-        <v>94.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>97.7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1198</v>
-      </c>
-      <c r="C17" s="6">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="D9" s="6">
         <v>132.4</v>
       </c>
     </row>
@@ -783,7 +783,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,8 +1066,8 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
